--- a/TestResults/CntryOrgStdPut.xlsx
+++ b/TestResults/CntryOrgStdPut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="156">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -56,41 +56,41 @@
     <t>Put</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
-		"countryShortName":"IND",
-		"countryFullName":"INDIA",
-		"orgStandardCode":"WHO",
+		"countryCode":"Q1",
+		"countryShortName":"Test_In",
+		"countryFullName":"Test_India",
+		"orgStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Response_GeoId: 31225898459012556
-Input_CountryShortName: IND
-Input_CountryFullame: INDIA
-Input_orgStandardCode: WHO
+    <t xml:space="preserve">Response_GeoId: 449266727189580575
+Input_CountryShortName: Test_In
+Input_CountryFullame: Test_India
+Input_orgStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
-Input_LastUpdateUserName: 3572253
+Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>DB_GeoId: 31225898459012556
-DB_CountryShortName: IND
-DB_CountryFullame: INDIA
-DB_orgStandardCode: WHO
+    <t xml:space="preserve">DB_GeoId: 449266727189580575
+DB_CountryShortName: Test_In
+DB_CountryFullame: Test_India
+DB_orgStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
-DB_LastUpdateUserName: 3572253
+DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
@@ -100,24 +100,23 @@
     <t>200</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253",
+		"userName":"Automation",
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:41.657+0000",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :WHO",
+			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :TestOrg",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"geoplId":31225898459012556,
-		"orgStdCd":"WHO"
+		"geoplId":449266727189580575,
+		"orgStdCd":"TestOrg"
 	}
 }</t>
   </si>
@@ -128,13 +127,70 @@
     <t/>
   </si>
   <si>
+    <t>Audit Table Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_GeoId: 449266727189580575
+Input_CountryShortName: Test_In
+Input_CountryFullame: Test_India
+Input_orgStandardCode: TestOrg
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+Input_LastUpdateUserName: Automation
+Expected RevisionType CD:1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_GeoId: 449266727189580575
+DB_CountryShortName: Test_In
+DB_CountryFullame: Test_India
+DB_orgStandardCode: TestOrg
+DB_effectiveDate: 2020-08-01
+DB_expirationDate: 2020-08-30
+DB_LastUpdateUserName: Automation
+DB_RevisionType CD:1
+</t>
+  </si>
+  <si>
+    <t>Audit Table validation</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the ContryOrgStd PUT request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 449266727189580575
+DB_geopoliticalId: 449266727189580575
+Response_orgStdNm TestOrg
+DB_orgStdNm: TestOrg
+Response_countryCode: Q1
+DB_countryCode: Q1
+Response_countryFullName: Test_India
+DB_countryFullName: Test_India
+Response_countryShortName: Test_In
+DB_countryShortName : Test_In
+Response_effectiveDate : 2020-08-01
+DB_effectiveDate : 2020-08-01
+Response_expirationDate : 2020-08-30
+DB_expirationDate 2020-08-30
+</t>
+  </si>
+  <si>
     <t>TC_02</t>
   </si>
   <si>
-    <t>Verify that the Country ORG STD service is successfully updated when the Country code is empty in JSON Request.</t>
-  </si>
-  <si>
-    <t>
+    <t>Verify that the Country ORG STD service is not updated when the Country code is empty in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
@@ -143,40 +199,36 @@
 	"countryOrgStdDTO":
 	{
 		"countryCode":"",
-		"countryShortName":"jkp",
-		"countryFullName":"Test Automation",
-		"orgStandardCode":"WHO",
+		"countryShortName":"testdata02",
+		"countryFullName":"Test_data02",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
+    <t xml:space="preserve">Input_UserName: 3572253
 Input_CountryCode: 
-Input_CountryShortName: jkp
-Input_CountryFullame: Test Automation
-Input_orgStandardCodeWHO
+Input_CountryShortName: testdata02
+Input_CountryFullame: Test_data02
+Input_orgStandardCodeISO
 Input_effectiveDate2020-08-01
 Input_expirationDate2020-08-30
 </t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>HTTP/1.1 400 Bad Request</t>
   </si>
   <si>
     <t>400</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:45.106+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -203,139 +255,95 @@
     <t xml:space="preserve">Verify that the Country ORG STD service is successfully updated when the empty value is passed in JSON for countryShortName </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"Q1",
 		"countryShortName":"",
-		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"countryFullName":"Test_Indiaa",
+		"orgStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Response_GeoId: 31225898459012556
+    <t xml:space="preserve">Response_GeoId: 449266727189580575
 Input_CountryShortName: 
-Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_CountryFullame: Test_Indiaa
+Input_orgStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
-Input_LastUpdateUserName: 3572253
+Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>DB_GeoId: 31225898459012556
+    <t xml:space="preserve">DB_GeoId: 449266727189580575
 DB_CountryShortName: 
-DB_CountryFullame: US-America
-DB_orgStandardCode: WHO
+DB_CountryFullame: Test_Indiaa
+DB_orgStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
-DB_LastUpdateUserName: 3572253
+DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully updated when empty value is passed for countryFullName in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253",
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:46.488+0000",
-		"message":
-		{
-			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :WHO",
-			"data":null
-		}
-	},
-	"data":
-	{
-		"geoplId":31225898459012556,
-		"orgStdCd":"WHO"
-	}
-}</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Verify that the Country ORG STD service is successfully updated when empty value is passed for countryFullName in JSON Request.</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253"
+		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
-		"countryShortName":"US",
+		"countryCode":"Q1",
+		"countryShortName":"Test_Ind",
 		"countryFullName":"",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Response_GeoId: 31225898459012556
-Input_CountryShortName: US
+    <t xml:space="preserve">Response_GeoId: 449266727189580575
+Input_CountryShortName: Test_Ind
 Input_CountryFullame: 
-Input_orgStandardCode: WHO
+Input_orgStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
-Input_LastUpdateUserName:3572253
+Input_LastUpdateUserName:Automation
 </t>
   </si>
   <si>
-    <t>DB_GeoId: 31225898459012556
-DB_CountryShortName: US
+    <t xml:space="preserve">DB_GeoId: 449266727189580575
+DB_CountryShortName: Test_Ind
 DB_CountryFullame: 
-DB_orgStandardCode: WHO
+DB_orgStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
-DB_LastUpdateUserName: 3572253
+DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253",
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:48.899+0000",
-		"message":
-		{
-			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :WHO",
-			"data":null
-		}
-	},
-	"data":
-	{
-		"geoplId":31225898459012556,
-		"orgStdCd":"WHO"
-	}
-}</t>
-  </si>
-  <si>
     <t>TC_05</t>
   </si>
   <si>
     <t>Verify that the ERROR message is received when the empty value is passed in JSON for orgStandardCode</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
@@ -343,7 +351,7 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
 		"orgStandardCode":"",
@@ -353,8 +361,8 @@
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572253
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
 Input_orgStandardCode: 
@@ -363,12 +371,11 @@
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:50.885+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -395,40 +402,39 @@
     <t>Verify that the ERROR message is received when the empty value is passed in JSON for effectiveDate</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572253.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
-		"countryShortName":"US",
-		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"countryCode":"Q1",
+		"countryShortName":"CountrySH3",
+		"countryFullName":"TestNov3",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
-Input_CountryShortName: US
-Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+    <t xml:space="preserve">Input_UserName: 3572253.0
+Input_CountryCode: Q1
+Input_CountryShortName: CountrySH3
+Input_CountryFullame: TestNov3
+Input_orgStandardCode: ISO
 Input_effectiveDate: 
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:51.944+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -455,95 +461,73 @@
     <t>Verify that the Country ORG STD service is successfully updated when the empty value is passed in JSON for expirationDate</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
-		"countryShortName":"US",
-		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"countryCode":"Q1",
+		"countryShortName":"Test_Ind2",
+		"countryFullName":"Test_India2",
+		"orgStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":""
 	}
 }</t>
   </si>
   <si>
-    <t>Response_GeoId: 31225898459012556
-Input_CountryShortName: US
-Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+    <t xml:space="preserve">Response_GeoId: 449266727189580575
+Input_CountryShortName: Test_Ind2
+Input_CountryFullame: Test_India2
+Input_orgStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 9999-12-31
-Input_LastUpdateUserName: 3572253
+Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>DB_GeoId: 31225898459012556
-DB_CountryShortName: US
-DB_CountryFullame: US-America
-DB_orgStandardCode: WHO
+    <t xml:space="preserve">DB_GeoId: 449266727189580575
+DB_CountryShortName: Test_Ind2
+DB_CountryFullame: Test_India2
+DB_orgStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 9999-12-31
-DB_LastUpdateUserName: 3572253
+DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid countryCode (Not exist in Country table) is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253",
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:53.292+0000",
-		"message":
-		{
-			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :WHO",
-			"data":null
-		}
-	},
-	"data":
-	{
-		"geoplId":31225898459012556,
-		"orgStdCd":"WHO"
-	}
-}</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when invalid countryCode (Not exist in Country table) is passed in JSON</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253"
+		"userName":"3572253.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2ghd",
-		"countryShortName":"US",
-		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"countryCode":"Cx",
+		"countryShortName":"test7",
+		"countryFullName":"Test_data07",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2ghd
-Input_CountryShortName: US
-Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+    <t xml:space="preserve">Input_UserName: 3572253.0
+Input_CountryCode: Cx
+Input_CountryShortName: test7
+Input_CountryFullame: Test_data07
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -555,12 +539,11 @@
     <t>404</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:55.380+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -574,8 +557,8 @@
 	"errors":
 	[
 		{
-			"fieldName":"Error",
-			"message":"Country not found"
+			"fieldName":"countryCode",
+			"message":" is not a valid value"
 		}
 	]
 }</t>
@@ -587,40 +570,39 @@
     <t>Verify that the ERROR message is received when invalid orgStandardCode (not exist in Geopl ORG STD) is passed in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572253.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"Q1",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"123.0",
+		"orgStandardCode":"WH",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572253.0
+Input_CountryCode: Q1
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: 123.0
+Input_orgStandardCode: WH
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:56.464+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -634,8 +616,8 @@
 	"errors":
 	[
 		{
-			"fieldName":"Error",
-			"message":"Organisation standard Code not existing"
+			"fieldName":"orgStandardCode",
+			"message":" is not a valid value"
 		}
 	]
 }</t>
@@ -647,40 +629,39 @@
     <t>Verify that the ERROR message is received when invalid  effectiveDate is passed in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572253.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-18-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572253.0
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-18-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:57.566+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -707,96 +688,69 @@
     <t>Verify that the ERROR message is received when invalid expirationDate is passed in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572253.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-18-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572253.0
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-18-30
 </t>
   </si>
   <si>
-    <t>
-{
-	"meta":
-	{
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:58.522+0000",
-		"message":
-		{
-			"status":"ERROR",
-			"internalMessage":"Json Parser Error",
-			"data":
-			{
-				"errorMessage":"Request Submitted With Error"
-			}
-		}
-	},
-	"errors":
-	[
-		{
-			"fieldName":"Error",
-			"message":"Invalid Date Format"
-		}
-	]
-}</t>
-  </si>
-  <si>
     <t>TC_12</t>
   </si>
   <si>
     <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572253.0
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:53:59.524+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -823,147 +777,117 @@
     <t>Verify that the ERROR message is received when the countryCode attribute is not passed in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572253.0"
 	},
 	"countryOrgStdDTO":
 	{
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
+    <t xml:space="preserve">Input_UserName: 3572253.0
 Input_CountryCode: 
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully updated when the countryShortName attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:00.475+0000",
-		"message":
-		{
-			"status":"ERROR",
-			"internalMessage":"Validation Failed",
-			"data":
-			{
-				"errorMessage":"Request Submitted With Error"
-			}
-		}
-	},
-	"errors":
-	[
-		{
-			"fieldName":"countryCode",
-			"message":" is a required field"
-		}
-	]
-}</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>Verify that the Country ORG STD service is successfully updated when the countryShortName attribute is not passed in JSON</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253"
+		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
-		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"countryCode":"Q1",
+		"countryFullName":"Test_India3",
+		"orgStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">Response_GeoId: 449266727189580575
+Input_CountryShortName: 
+Input_CountryFullame: Test_India3
+Input_orgStandardCode: TestOrg
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_GeoId: 449266727189580575
+DB_CountryShortName: 
+DB_CountryFullame: Test_India3
+DB_orgStandardCode: TestOrg
+DB_effectiveDate: 2020-08-01
+DB_expirationDate: 2020-08-30
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully updated when countryFullName attributes IS NOT PASSED in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253",
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:01.820+0000",
-		"message":
-		{
-			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :WHO",
-			"data":null
-		}
-	},
-	"data":
-	{
-		"geoplId":31225898459012556,
-		"orgStdCd":"WHO"
-	}
-}</t>
-  </si>
-  <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>Verify that the Country ORG STD service is successfully updated when countryFullName attributes IS NOT PASSED in JSON Request.</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253"
+		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
-		"countryShortName":"US",
-		"orgStandardCode":"WHO",
+		"countryCode":"Q1",
+		"countryShortName":"Test_Ind4",
+		"orgStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253",
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:04.182+0000",
-		"message":
-		{
-			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :WHO",
-			"data":null
-		}
-	},
-	"data":
-	{
-		"geoplId":31225898459012556,
-		"orgStdCd":"WHO"
-	}
-}</t>
+    <t xml:space="preserve">Response_GeoId: 449266727189580575
+Input_CountryShortName: Test_Ind4
+Input_CountryFullame: 
+Input_orgStandardCode: TestOrg
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+Input_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_GeoId: 449266727189580575
+DB_CountryShortName: Test_Ind4
+DB_CountryFullame: 
+DB_orgStandardCode: TestOrg
+DB_effectiveDate: 2020-08-01
+DB_expirationDate: 2020-08-30
+DB_LastUpdateUserName: Automation
+</t>
   </si>
   <si>
     <t>TC_16</t>
@@ -972,7 +896,7 @@
     <t>Verify that the ERROR message is received when the orgStandardCode attribute is not passed in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
@@ -980,7 +904,7 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
 		"effectiveDate":"2020-08-01",
@@ -989,39 +913,13 @@
 }</t>
   </si>
   <si>
-    <t>
-{
-	"meta":
-	{
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:06.399+0000",
-		"message":
-		{
-			"status":"ERROR",
-			"internalMessage":"Validation Failed",
-			"data":
-			{
-				"errorMessage":"Request Submitted With Error"
-			}
-		}
-	},
-	"errors":
-	[
-		{
-			"fieldName":"orgStandardCode",
-			"message":" is a required field"
-		}
-	]
-}</t>
-  </si>
-  <si>
     <t>TC_17</t>
   </si>
   <si>
     <t>Verify that the ERROR message is received when the effectiveDate attribute is not passed in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
@@ -1029,94 +927,66 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
-		"countryShortName":"US",
-		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"countryCode":"Q1",
+		"countryShortName":"CountrySH5",
+		"countryFullName":"TestNov5",
+		"orgStandardCode":"ISO",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">Input_UserName: 3572253
+Input_CountryCode: Q1
+Input_CountryShortName: CountrySH5
+Input_CountryFullame: TestNov5
+Input_orgStandardCode: ISO
+Input_effectiveDate: 
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully updated when the expirationDate attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:07.309+0000",
-		"message":
-		{
-			"status":"ERROR",
-			"internalMessage":"Exception",
-			"data":
-			{
-				"errorMessage":"Request Submitted With Error"
-			}
-		}
-	},
-	"errors":
-	[
-		{
-			"fieldName":"effectiveDate",
-			"message":" is a required field"
-		}
-	]
-}</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>Verify that the Country ORG STD service is successfully updated when the expirationDate attribute is not passed in JSON</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253"
+		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
-		"countryShortName":"US",
-		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"countryCode":"Q1",
+		"countryShortName":"Test_Ind5",
+		"countryFullName":"Test_India5",
+		"orgStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01"
 	}
 }</t>
   </si>
   <si>
-    <t>Response_GeoId: 31225898459012556
-Input_CountryShortName: US
-Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+    <t xml:space="preserve">Response_GeoId: 449266727189580575
+Input_CountryShortName: Test_Ind5
+Input_CountryFullame: Test_India5
+Input_orgStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 9999-12-31
-Input_LastUpdateUserName:3572253
+Input_LastUpdateUserName:Automation
 </t>
   </si>
   <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253",
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:08.634+0000",
-		"message":
-		{
-			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :WHO",
-			"data":null
-		}
-	},
-	"data":
-	{
-		"geoplId":31225898459012556,
-		"orgStdCd":"WHO"
-	}
-}</t>
+    <t xml:space="preserve">DB_GeoId: 449266727189580575
+DB_CountryShortName: Test_Ind5
+DB_CountryFullame: Test_India5
+DB_orgStandardCode: TestOrg
+DB_effectiveDate: 2020-08-01
+DB_expirationDate: 9999-12-31
+DB_LastUpdateUserName: Automation
+</t>
   </si>
   <si>
     <t>TC_19</t>
@@ -1125,7 +995,7 @@
     <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
@@ -1133,32 +1003,31 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:10.826+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -1185,40 +1054,39 @@
     <t>Verify that the ERROR message is received when the countryCode is more than 2 characters length in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572531.0"
 	},
 	"countryOrgStdDTO":
 	{
 		"countryCode":"USAQWERTYQWERTY",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
+    <t xml:space="preserve">Input_UserName: 3572531.0
 Input_CountryCode: USAQWERTYQWERTY
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:12.000+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -1245,40 +1113,39 @@
     <t>Verify that the ERROR message is received when the countryShortName is more than 65 characters length in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572531.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"United States of AmericaUnited States of AmericaUnited States of America",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572531.0
+Input_CountryCode: CN
 Input_CountryShortName: United States of AmericaUnited States of AmericaUnited States of America
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:13.118+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -1305,40 +1172,39 @@
     <t>Verify that the ERROR message is received when the countryFullName is more than 120 characters length in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572531.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"United States of AmericaUnited States of AmericaUnited States of AmericaUnited States of AmericaUnited States of AmericaUnited States of America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572531.0
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: United States of AmericaUnited States of AmericaUnited States of AmericaUnited States of AmericaUnited States of AmericaUnited States of America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:14.114+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -1365,15 +1231,15 @@
     <t>Verify that the ERROR message is received when the orgStandardCode is more than 10 characters length in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572531.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
 		"orgStandardCode":"POCFDGFDGFDGFD",
@@ -1383,8 +1249,8 @@
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572531.0
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
 Input_orgStandardCode: POCFDGFDGFDGFD
@@ -1393,12 +1259,11 @@
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:15.217+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -1425,127 +1290,75 @@
     <t>Verify that the ERROR message is received when the effectiveDate is other than timestamp format in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3572531.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"ASDASDA",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572531.0
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: ASDASDA
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the expirationDate is other than timestamp format in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:16.294+0000",
-		"message":
-		{
-			"status":"ERROR",
-			"internalMessage":"Json Parser Error",
-			"data":
-			{
-				"errorMessage":"Request Submitted With Error"
-			}
-		}
-	},
-	"errors":
-	[
-		{
-			"fieldName":"Error",
-			"message":"Invalid Date Format"
-		}
-	]
-}</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the expirationDate is other than timestamp format in JSON</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3572253"
+		"userName":"3572531.0"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"ASDASDA"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 3572531.0
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: ASDASDA
 </t>
   </si>
   <si>
-    <t>
-{
-	"meta":
-	{
-		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:17.152+0000",
-		"message":
-		{
-			"status":"ERROR",
-			"internalMessage":"Json Parser Error",
-			"data":
-			{
-				"errorMessage":"Request Submitted With Error"
-			}
-		}
-	},
-	"errors":
-	[
-		{
-			"fieldName":"Error",
-			"message":"Invalid Date Format"
-		}
-	]
-}</t>
-  </si>
-  <si>
     <t>TC_26</t>
   </si>
   <si>
     <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
@@ -1553,32 +1366,31 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"2g",
+		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WHO",
+		"orgStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 12345678901234567890123456
-Input_CountryCode: 2g
+    <t xml:space="preserve">Input_UserName: 12345678901234567890123456
+Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WHO
+Input_orgStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"timestamp":"2019-08-14T04:54:18.521+0000",
 		"message":
 		{
 			"status":"ERROR",
@@ -1605,13 +1417,13 @@
     <t>Verify that the Exception is received when the URI is not correct</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
-	"timestamp":1565758459591,
+	"timestamp":1578666185693,
 	"status":404,
 	"error":"Not Found",
 	"message":"No message available",
-	"path":"/cntryOrgS"
+	"path":"/cntryOrg"
 }</t>
   </si>
 </sst>
@@ -1620,7 +1432,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="299">
+  <fonts count="321">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1633,6 +1445,116 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3186,7 +3108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -4080,6 +4002,72 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4094,17 +4082,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -4180,67 +4168,67 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="14">
         <v>22</v>
-      </c>
-      <c r="B3" t="s" s="14">
-        <v>23</v>
       </c>
       <c r="C3" t="s" s="15">
         <v>13</v>
       </c>
       <c r="D3" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="E3" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s" s="18">
-        <v>26</v>
-      </c>
       <c r="G3" t="s" s="19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="20">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s" s="21">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s" s="22">
         <v>20</v>
       </c>
       <c r="K3" t="s" s="23">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="32">
         <v>30</v>
-      </c>
-      <c r="B4" t="s" s="25">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s" s="26">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="27">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="28">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s" s="29">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s" s="30">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s" s="31">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s" s="32">
-        <v>35</v>
       </c>
       <c r="J4" t="s" s="33">
         <v>20</v>
@@ -4252,31 +4240,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="35">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="36">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="37">
         <v>13</v>
       </c>
       <c r="D5" t="s" s="38">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s" s="39">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s" s="40">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="41">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="42">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="43">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="44">
         <v>20</v>
@@ -4288,31 +4276,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="46">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="47">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="48">
         <v>13</v>
       </c>
       <c r="D6" t="s" s="49">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s" s="50">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s" s="51">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="52">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s" s="53">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s" s="54">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="55">
         <v>20</v>
@@ -4324,31 +4312,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="58">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="59">
         <v>13</v>
       </c>
       <c r="D7" t="s" s="60">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s" s="61">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s" s="62">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="63">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="64">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s" s="65">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="66">
         <v>20</v>
@@ -4360,31 +4348,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="68">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s" s="69">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s" s="70">
         <v>13</v>
       </c>
       <c r="D8" t="s" s="71">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s" s="72">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s" s="73">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s" s="74">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="75">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="76">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s" s="77">
         <v>20</v>
@@ -4396,31 +4384,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="79">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s" s="80">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="81">
         <v>13</v>
       </c>
       <c r="D9" t="s" s="82">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s" s="83">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s" s="84">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s" s="85">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="86">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="87">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s" s="88">
         <v>20</v>
@@ -4432,31 +4420,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="90">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="91">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s" s="92">
         <v>13</v>
       </c>
       <c r="D10" t="s" s="93">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s" s="94">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s" s="95">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s" s="96">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s" s="97">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s" s="98">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="99">
         <v>20</v>
@@ -4468,31 +4456,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="101">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s" s="102">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s" s="103">
         <v>13</v>
       </c>
       <c r="D11" t="s" s="104">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s" s="105">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s" s="106">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s" s="107">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s" s="108">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s" s="109">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s" s="110">
         <v>20</v>
@@ -4504,31 +4492,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="112">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s" s="113">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s" s="114">
         <v>13</v>
       </c>
       <c r="D12" t="s" s="115">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s" s="116">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="117">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s" s="118">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s" s="119">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s" s="120">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="121">
         <v>20</v>
@@ -4540,31 +4528,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="123">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s" s="124">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s" s="125">
         <v>13</v>
       </c>
       <c r="D13" t="s" s="126">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s" s="127">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="128">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s" s="129">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s" s="130">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s" s="131">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="132">
         <v>20</v>
@@ -4576,31 +4564,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="134">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s" s="135">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s" s="136">
         <v>13</v>
       </c>
       <c r="D14" t="s" s="137">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s" s="138">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s" s="139">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s" s="140">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s" s="141">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s" s="142">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="143">
         <v>20</v>
@@ -4612,31 +4600,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="145">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s" s="146">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="147">
         <v>13</v>
       </c>
       <c r="D15" t="s" s="148">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s" s="149">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="150">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s" s="151">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s" s="152">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s" s="153">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="154">
         <v>20</v>
@@ -4648,31 +4636,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="156">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s" s="157">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s" s="158">
         <v>13</v>
       </c>
       <c r="D16" t="s" s="159">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s" s="160">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s" s="161">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s" s="162">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s" s="163">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s" s="164">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="165">
         <v>20</v>
@@ -4684,31 +4672,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="167">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s" s="168">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s" s="169">
         <v>13</v>
       </c>
       <c r="D17" t="s" s="170">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s" s="171">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s" s="172">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s" s="173">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s" s="174">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s" s="175">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="176">
         <v>20</v>
@@ -4720,31 +4708,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="178">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s" s="179">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s" s="180">
         <v>13</v>
       </c>
       <c r="D18" t="s" s="181">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s" s="182">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s" s="183">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s" s="184">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s" s="185">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s" s="186">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="187">
         <v>20</v>
@@ -4756,31 +4744,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="189">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s" s="190">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s" s="191">
         <v>13</v>
       </c>
       <c r="D19" t="s" s="192">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s" s="193">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s" s="194">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s" s="195">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s" s="196">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s" s="197">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s" s="198">
         <v>20</v>
@@ -4792,31 +4780,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="200">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s" s="201">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s" s="202">
         <v>13</v>
       </c>
       <c r="D20" t="s" s="203">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s" s="204">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s" s="205">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s" s="206">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s" s="207">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s" s="208">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s" s="209">
         <v>20</v>
@@ -4828,31 +4816,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="211">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s" s="212">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s" s="213">
         <v>13</v>
       </c>
       <c r="D21" t="s" s="214">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s" s="215">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s" s="216">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s" s="217">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s" s="218">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s" s="219">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="220">
         <v>20</v>
@@ -4864,31 +4852,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="222">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s" s="223">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s" s="224">
         <v>13</v>
       </c>
       <c r="D22" t="s" s="225">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s" s="226">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s" s="227">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s" s="228">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s" s="229">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s" s="230">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s" s="231">
         <v>20</v>
@@ -4900,31 +4888,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="233">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s" s="234">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s" s="235">
         <v>13</v>
       </c>
       <c r="D23" t="s" s="236">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s" s="237">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s" s="238">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s" s="239">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s" s="240">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s" s="241">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s" s="242">
         <v>20</v>
@@ -4936,31 +4924,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="244">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s" s="245">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s" s="246">
         <v>13</v>
       </c>
       <c r="D24" t="s" s="247">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s" s="248">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s" s="249">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s" s="250">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s" s="251">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s" s="252">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J24" t="s" s="253">
         <v>20</v>
@@ -4972,31 +4960,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="255">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s" s="256">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s" s="257">
         <v>13</v>
       </c>
       <c r="D25" t="s" s="258">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s" s="259">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s" s="260">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s" s="261">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s" s="262">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s" s="263">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J25" t="s" s="264">
         <v>20</v>
@@ -5008,31 +4996,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="266">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s" s="267">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s" s="268">
         <v>13</v>
       </c>
       <c r="D26" t="s" s="269">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s" s="270">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s" s="271">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s" s="272">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s" s="273">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s" s="274">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s" s="275">
         <v>20</v>
@@ -5044,31 +5032,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="277">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s" s="278">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s" s="279">
         <v>13</v>
       </c>
       <c r="D27" t="s" s="280">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s" s="281">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s" s="282">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s" s="283">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s" s="284">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s" s="285">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="286">
         <v>20</v>
@@ -5080,31 +5068,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="288">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s" s="289">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s" s="290">
         <v>13</v>
       </c>
       <c r="D28" t="s" s="291">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s" s="292">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s" s="293">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s" s="294">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s" s="295">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s" s="296">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="297">
         <v>20</v>
@@ -5113,6 +5101,78 @@
         <v>21</v>
       </c>
       <c r="L28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="299">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s" s="300">
+        <v>149</v>
+      </c>
+      <c r="C29" t="s" s="301">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="302">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s" s="303">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s" s="304">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s" s="305">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s" s="306">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s" s="307">
+        <v>152</v>
+      </c>
+      <c r="J29" t="s" s="308">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s" s="309">
+        <v>21</v>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="310">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s" s="311">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s" s="312">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="313">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s" s="314">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s" s="315">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s" s="316">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s" s="317">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s" s="318">
+        <v>155</v>
+      </c>
+      <c r="J30" t="s" s="319">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s" s="320">
+        <v>21</v>
+      </c>
+      <c r="L30"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TestResults/CntryOrgStdPut.xlsx
+++ b/TestResults/CntryOrgStdPut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="186">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -64,30 +64,30 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryShortName":"Test_In",
 		"countryFullName":"Test_India",
-		"orgStandardCode":"TestOrg",
+		"organizationStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_GeoId: 449266727189580575
+    <t xml:space="preserve">Response_GeoId: 1371367871972554055
 Input_CountryShortName: Test_In
 Input_CountryFullame: Test_India
-Input_orgStandardCode: TestOrg
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_GeoId: 449266727189580575
+    <t xml:space="preserve">DB_GeoId: 1371367871972554055
 DB_CountryShortName: Test_In
 DB_CountryFullame: Test_India
-DB_orgStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
 DB_LastUpdateUserName: Automation
@@ -106,17 +106,20 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
+		"transactionId":"9908f7c2-cc11-43b8-bbc0-53e27ba694ec",
+		"timeStamp":"2020-06-18 14:23:41",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully updated with OrgStdCd :TestOrg",
+			"internalMessage":"CountryOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"geoplId":449266727189580575,
-		"orgStdCd":"TestOrg"
+		"geopoliticalId":"1371367871972554055",
+		"organizationStandardCode":"TestOrg"
 	}
 }</t>
   </si>
@@ -130,10 +133,10 @@
     <t>Audit Table Validation</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_GeoId: 449266727189580575
+    <t xml:space="preserve">Response_GeoId: 1371367871972554055
 Input_CountryShortName: Test_In
 Input_CountryFullame: Test_India
-Input_orgStandardCode: TestOrg
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 Input_LastUpdateUserName: Automation
@@ -141,10 +144,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_GeoId: 449266727189580575
+    <t xml:space="preserve">DB_GeoId: 1371367871972554055
 DB_CountryShortName: Test_In
 DB_CountryFullame: Test_India
-DB_orgStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
 DB_LastUpdateUserName: Automation
@@ -155,7 +158,7 @@
     <t>Audit Table validation</t>
   </si>
   <si>
-    <t>TC_28</t>
+    <t>TC_31</t>
   </si>
   <si>
     <t>Verify the JMS-PASSED queue after the ContryOrgStd PUT request sent</t>
@@ -167,12 +170,12 @@
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_geopoliticalId: 449266727189580575
-DB_geopoliticalId: 449266727189580575
+    <t xml:space="preserve">Response_geopoliticalId: 1371367871972554055
+DB_geopoliticalId: 1371367871972554055
 Response_orgStdNm TestOrg
 DB_orgStdNm: TestOrg
-Response_countryCode: Q1
-DB_countryCode: Q1
+Response_countryCode: AK
+DB_countryCode: AK
 Response_countryFullName: Test_India
 DB_countryFullName: Test_India
 Response_countryShortName: Test_In
@@ -201,7 +204,7 @@
 		"countryCode":"",
 		"countryShortName":"testdata02",
 		"countryFullName":"Test_data02",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -212,7 +215,7 @@
 Input_CountryCode: 
 Input_CountryShortName: testdata02
 Input_CountryFullame: Test_data02
-Input_orgStandardCodeISO
+Input_organizationStandardCodeISO
 Input_effectiveDate2020-08-01
 Input_expirationDate2020-08-30
 </t>
@@ -229,6 +232,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"4ac388bd-ac4e-4ef2-b6ee-08c7f0dd6ff1",
+		"timeStamp":"2020-06-18 14:23:57",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -263,90 +269,138 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryShortName":"",
 		"countryFullName":"Test_Indiaa",
-		"orgStandardCode":"TestOrg",
+		"organizationStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_GeoId: 449266727189580575
+    <t xml:space="preserve">Response_GeoId: 1371367871972554055
 Input_CountryShortName: 
 Input_CountryFullame: Test_Indiaa
-Input_orgStandardCode: TestOrg
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_GeoId: 449266727189580575
+    <t xml:space="preserve">DB_GeoId: 1371367871972554055
 DB_CountryShortName: 
 DB_CountryFullame: Test_Indiaa
-DB_orgStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
 DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Verify that the Country ORG STD service is successfully updated when empty value is passed for countryFullName in JSON Request.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"71c582fd-97ec-45fc-bc27-3a7d8017411d",
+		"timeStamp":"2020-06-18 14:23:58",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"1371367871972554055",
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully updated when empty value is passed for countryFullName in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryShortName":"Test_Ind",
 		"countryFullName":"",
-		"orgStandardCode":"TestOrg",
+		"organizationStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_GeoId: 449266727189580575
+    <t xml:space="preserve">Response_GeoId: 1371367871972554055
 Input_CountryShortName: Test_Ind
 Input_CountryFullame: 
-Input_orgStandardCode: TestOrg
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 Input_LastUpdateUserName:Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_GeoId: 449266727189580575
+    <t xml:space="preserve">DB_GeoId: 1371367871972554055
 DB_CountryShortName: Test_Ind
 DB_CountryFullame: 
-DB_orgStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
 DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the empty value is passed in JSON for orgStandardCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"44ba408b-0d81-460d-8a24-9d5c0f531722",
+		"timeStamp":"2020-06-18 14:24:01",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"1371367871972554055",
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the empty value is passed in JSON for orgStandardCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"3572253"
 	},
 	"countryOrgStdDTO":
@@ -354,7 +408,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"",
+		"organizationStandardCode":"",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -365,7 +419,7 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: 
+Input_organizationStandardCode: 
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -376,6 +430,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"3766b852-0bb0-4f56-955a-32640ef9c38b",
+		"timeStamp":"2020-06-18 14:24:03",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -389,7 +446,7 @@
 	"errors":
 	[
 		{
-			"fieldName":"orgStandardCode",
+			"fieldName":"organizationStandardCode",
 			"message":" is a required field"
 		}
 	]
@@ -410,10 +467,10 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryShortName":"CountrySH3",
 		"countryFullName":"TestNov3",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"",
 		"expirationDate":"2020-08-30"
 	}
@@ -421,10 +478,10 @@
   </si>
   <si>
     <t xml:space="preserve">Input_UserName: 3572253.0
-Input_CountryCode: Q1
+Input_CountryCode: AK
 Input_CountryShortName: CountrySH3
 Input_CountryFullame: TestNov3
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 
 Input_expirationDate: 2020-08-30
 </t>
@@ -435,6 +492,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"d5806885-22c4-464a-90cc-e91e64086931",
+		"timeStamp":"2020-06-18 14:24:05",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -469,46 +529,70 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryShortName":"Test_Ind2",
 		"countryFullName":"Test_India2",
-		"orgStandardCode":"TestOrg",
+		"organizationStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":""
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_GeoId: 449266727189580575
+    <t xml:space="preserve">Response_GeoId: 1371367871972554055
 Input_CountryShortName: Test_Ind2
 Input_CountryFullame: Test_India2
-Input_orgStandardCode: TestOrg
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 9999-12-31
 Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_GeoId: 449266727189580575
+    <t xml:space="preserve">DB_GeoId: 1371367871972554055
 DB_CountryShortName: Test_Ind2
 DB_CountryFullame: Test_India2
-DB_orgStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 9999-12-31
 DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when invalid countryCode (Not exist in Country table) is passed in JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"d6bb2183-6b80-49ef-a556-a1d15892b4fb",
+		"timeStamp":"2020-06-18 14:24:06",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"1371367871972554055",
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid countryCode (Not exist in Country table) is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"3572253.0"
 	},
 	"countryOrgStdDTO":
@@ -516,7 +600,7 @@
 		"countryCode":"Cx",
 		"countryShortName":"test7",
 		"countryFullName":"Test_data07",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -527,7 +611,7 @@
 Input_CountryCode: Cx
 Input_CountryShortName: test7
 Input_CountryFullame: Test_data07
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -544,6 +628,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"4d1c9d00-e872-454f-a7d7-8d1c004c676a",
+		"timeStamp":"2020-06-18 14:24:09",
+		"statusCode":"404",
 		"message":
 		{
 			"status":"ERROR",
@@ -578,10 +665,10 @@
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"WH",
+		"organizationStandardCode":"WH",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -589,10 +676,10 @@
   </si>
   <si>
     <t xml:space="preserve">Input_UserName: 3572253.0
-Input_CountryCode: Q1
+Input_CountryCode: AK
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: WH
+Input_organizationStandardCode: WH
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -603,6 +690,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"20d7504f-af03-4ed1-bd7c-54268eabf52f",
+		"timeStamp":"2020-06-18 14:24:10",
+		"statusCode":"404",
 		"message":
 		{
 			"status":"ERROR",
@@ -616,7 +706,7 @@
 	"errors":
 	[
 		{
-			"fieldName":"orgStandardCode",
+			"fieldName":"organizationStandardCode",
 			"message":" is not a valid value"
 		}
 	]
@@ -640,7 +730,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-18-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -651,7 +741,7 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-18-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -662,6 +752,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"b54cad1e-c4c2-4385-80c9-7a83a91874c0",
+		"timeStamp":"2020-06-18 14:24:12",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -699,7 +792,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-18-30"
 	}
@@ -710,12 +803,40 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-18-30
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"d38f8c1d-9073-4b3e-b8d1-e99f62104bfb",
+		"timeStamp":"2020-06-18 14:24:13",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Invalid Date Format"
+		}
+	]
+}</t>
+  </si>
+  <si>
     <t>TC_12</t>
   </si>
   <si>
@@ -729,7 +850,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -740,7 +861,7 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -751,6 +872,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"3c4c029b-ed8b-4849-b8d8-5bd67c2ff210",
+		"timeStamp":"2020-06-18 14:24:14",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -787,7 +911,7 @@
 	{
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -798,96 +922,172 @@
 Input_CountryCode: 
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>Verify that the Country ORG STD service is successfully updated when the countryShortName attribute is not passed in JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"version":"1.0.0",
+		"transactionId":"3dea9f7d-fda4-4f4b-a36b-6635c6d29dc2",
+		"timeStamp":"2020-06-18 14:24:16",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"countryCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully updated when the countryShortName attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryFullName":"Test_India3",
-		"orgStandardCode":"TestOrg",
+		"organizationStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_GeoId: 449266727189580575
+    <t xml:space="preserve">Response_GeoId: 1371367871972554055
 Input_CountryShortName: 
 Input_CountryFullame: Test_India3
-Input_orgStandardCode: TestOrg
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_GeoId: 449266727189580575
+    <t xml:space="preserve">DB_GeoId: 1371367871972554055
 DB_CountryShortName: 
 DB_CountryFullame: Test_India3
-DB_orgStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
 DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>Verify that the Country ORG STD service is successfully updated when countryFullName attributes IS NOT PASSED in JSON Request.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"60bf3dfa-bdf0-4b52-b672-c4b152eaa51f",
+		"timeStamp":"2020-06-18 14:24:17",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"1371367871972554055",
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully updated when countryFullName attributes IS NOT PASSED in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryShortName":"Test_Ind4",
-		"orgStandardCode":"TestOrg",
+		"organizationStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_GeoId: 449266727189580575
+    <t xml:space="preserve">Response_GeoId: 1371367871972554055
 Input_CountryShortName: Test_Ind4
 Input_CountryFullame: 
-Input_orgStandardCode: TestOrg
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 Input_LastUpdateUserName:Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_GeoId: 449266727189580575
+    <t xml:space="preserve">DB_GeoId: 1371367871972554055
 DB_CountryShortName: Test_Ind4
 DB_CountryFullame: 
-DB_orgStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
 DB_LastUpdateUserName: Automation
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"cf2ef515-bce0-4bd7-bbff-12cb9a6d2216",
+		"timeStamp":"2020-06-18 14:24:20",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"1371367871972554055",
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
   </si>
   <si>
     <t>TC_16</t>
@@ -913,92 +1113,172 @@
 }</t>
   </si>
   <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the effectiveDate attribute is not passed in JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"version":"1.0.0",
+		"transactionId":"59a4cefb-6ea2-4ddd-8535-7a48996032e7",
+		"timeStamp":"2020-06-18 14:24:22",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the effectiveDate attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"3572253"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
-		"countryShortName":"CountrySH5",
-		"countryFullName":"TestNov5",
-		"orgStandardCode":"ISO",
+		"countryCode":"AK",
+		"countryShortName":"CountrySH",
+		"countryFullName":"TestNov",
+		"organizationStandardCode":"TestOrg",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
     <t xml:space="preserve">Input_UserName: 3572253
-Input_CountryCode: Q1
-Input_CountryShortName: CountrySH5
-Input_CountryFullame: TestNov5
-Input_orgStandardCode: ISO
+Input_CountryCode: AK
+Input_CountryShortName: CountrySH
+Input_CountryFullame: TestNov
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>Verify that the Country ORG STD service is successfully updated when the expirationDate attribute is not passed in JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"version":"1.0.0",
+		"transactionId":"0f794b6d-a62b-48df-8cc1-deb2188931d9",
+		"timeStamp":"2020-06-18 14:24:24",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"effectiveDate",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully updated when the expirationDate attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"Automation"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"Q1",
+		"countryCode":"AK",
 		"countryShortName":"Test_Ind5",
 		"countryFullName":"Test_India5",
-		"orgStandardCode":"TestOrg",
+		"organizationStandardCode":"TestOrg",
 		"effectiveDate":"2020-08-01"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_GeoId: 449266727189580575
+    <t xml:space="preserve">Response_GeoId: 1371367871972554055
 Input_CountryShortName: Test_Ind5
 Input_CountryFullame: Test_India5
-Input_orgStandardCode: TestOrg
+Input_organizationStandardCode: TestOrg
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 9999-12-31
 Input_LastUpdateUserName:Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_GeoId: 449266727189580575
+    <t xml:space="preserve">DB_GeoId: 1371367871972554055
 DB_CountryShortName: Test_Ind5
 DB_CountryFullame: Test_India5
-DB_orgStandardCode: TestOrg
+DB_organizationStandardCode: TestOrg
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 9999-12-31
 DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"623b3688-199e-485e-93be-22893d0e33d3",
+		"timeStamp":"2020-06-18 14:24:25",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"1371367871972554055",
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":""
 	},
 	"countryOrgStdDTO":
@@ -1006,7 +1286,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -1017,7 +1297,7 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -1028,6 +1308,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"43a103ae-749e-4327-92c7-6d8ebada7b06",
+		"timeStamp":"2020-06-18 14:24:28",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -1065,7 +1348,7 @@
 		"countryCode":"USAQWERTYQWERTY",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -1076,7 +1359,7 @@
 Input_CountryCode: USAQWERTYQWERTY
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -1087,6 +1370,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"cb8c8f5d-b5fd-4af9-93f7-bc4e852d8d8a",
+		"timeStamp":"2020-06-18 14:24:30",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -1124,7 +1410,7 @@
 		"countryCode":"CN",
 		"countryShortName":"United States of AmericaUnited States of AmericaUnited States of America",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -1135,7 +1421,7 @@
 Input_CountryCode: CN
 Input_CountryShortName: United States of AmericaUnited States of AmericaUnited States of America
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -1146,6 +1432,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"99f67a38-e732-4bd8-a676-711950d0b44a",
+		"timeStamp":"2020-06-18 14:24:31",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -1183,7 +1472,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"United States of AmericaUnited States of AmericaUnited States of AmericaUnited States of AmericaUnited States of AmericaUnited States of America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -1194,7 +1483,7 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: United States of AmericaUnited States of AmericaUnited States of AmericaUnited States of AmericaUnited States of AmericaUnited States of America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -1205,6 +1494,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"16e70087-d5b6-4ca3-b6b7-afeb8ee67c9c",
+		"timeStamp":"2020-06-18 14:24:32",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -1242,7 +1534,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"POCFDGFDGFDGFD",
+		"organizationStandardCode":"POCFDGFDGFDGFD",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -1253,7 +1545,7 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: POCFDGFDGFDGFD
+Input_organizationStandardCode: POCFDGFDGFDGFD
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -1264,6 +1556,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"7cdf0578-e387-4f73-80ef-a34bed1b7dd6",
+		"timeStamp":"2020-06-18 14:24:34",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -1277,7 +1572,7 @@
 	"errors":
 	[
 		{
-			"fieldName":"orgStandardCode",
+			"fieldName":"organizationStandardCode",
 			"message":" cannot be greater than 10 characters"
 		}
 	]
@@ -1301,7 +1596,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"ASDASDA",
 		"expirationDate":"2020-08-30"
 	}
@@ -1312,22 +1607,50 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: ASDASDA
 Input_expirationDate: 2020-08-30
 </t>
   </si>
   <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the expirationDate is other than timestamp format in JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"version":"1.0.0",
+		"transactionId":"3d5c5d77-8875-4319-bbfd-b0042e9f8d9d",
+		"timeStamp":"2020-06-18 14:24:35",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Invalid Date Format"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the expirationDate is other than timestamp format in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"3572531.0"
 	},
 	"countryOrgStdDTO":
@@ -1335,7 +1658,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"ASDASDA"
 	}
@@ -1346,22 +1669,50 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: ASDASDA
 </t>
   </si>
   <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
+		"version":"1.0.0",
+		"transactionId":"1cd144fa-7370-4630-93aa-059cfd696ff1",
+		"timeStamp":"2020-06-18 14:24:36",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Invalid Date Format"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
 		"userName":"12345678901234567890123456"
 	},
 	"countryOrgStdDTO":
@@ -1369,7 +1720,7 @@
 		"countryCode":"CN",
 		"countryShortName":"US",
 		"countryFullName":"US-America",
-		"orgStandardCode":"ISO",
+		"organizationStandardCode":"ISO",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
@@ -1380,7 +1731,7 @@
 Input_CountryCode: CN
 Input_CountryShortName: US
 Input_CountryFullame: US-America
-Input_orgStandardCode: ISO
+Input_organizationStandardCode: ISO
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
 </t>
@@ -1391,6 +1742,9 @@
 	"meta":
 	{
 		"version":"1.0.0",
+		"transactionId":"5a2ce370-e454-42f7-808a-9bb81dcd7a61",
+		"timeStamp":"2020-06-18 14:24:38",
+		"statusCode":"400",
 		"message":
 		{
 			"status":"ERROR",
@@ -1419,11 +1773,215 @@
   <si>
     <t xml:space="preserve">
 {
-	"timestamp":1578666185693,
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/cntryOrg"
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"02d67af9-030b-400f-88a4-71ad51ef45d3",
+		"timeStamp":"2020-06-18 14:24:39",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the PUT method for URL /v1/cntry"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then we will get the JSON parse error: Unexpected character in response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3791813"
+	},
+	"countryOrgStdDTO":
+	{
+		"countryCode":"CN",
+		"countryShortName":"US",
+		"countryFullName":"US-America",
+		"organizationStandardCode":"ISO",
+		"effectiveDate":"2020-08-01" "expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3791813
+Input_CountryCode: CN
+Input_CountryShortName: US
+Input_CountryFullame: US-America
+Input_organizationStandardCode: ISO
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"2607ae78-f711-4ed5-b8fb-225620daaaf6",
+		"timeStamp":"2020-06-18 14:24:40",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the ERROR message is received when we use PUT url but selecting GET method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3791813"
+	},
+	"countryOrgStdDTO":
+	{
+		"countryCode":"CN",
+		"countryShortName":"US",
+		"countryFullName":"US-America",
+		"organizationStandardCode":"ISO",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"716117e0-4057-4f2a-af60-aa71e5a5ae37",
+		"timeStamp":"2020-06-18 14:24:42",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3791815"
+	},
+	"countryOrgStdDTO":
+	{
+		"countryCode":"CN",
+		"countryShortName":"US",
+		"countryFullName":"US-America",
+		"organizationStandardCode":"ISO",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3791815
+Input_CountryCode: CN
+Input_CountryShortName: US
+Input_CountryFullame: US-America
+Input_organizationStandardCode: ISO
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 2020-08-30
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-18T14:24:43.634+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
 }</t>
   </si>
 </sst>
@@ -1432,7 +1990,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="321">
+  <fonts count="354">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1445,6 +2003,171 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3108,7 +3831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -4068,6 +4791,105 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="320" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4300,7 +5122,7 @@
         <v>18</v>
       </c>
       <c r="I6" t="s" s="54">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s" s="55">
         <v>20</v>
@@ -4312,22 +5134,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="58">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s" s="59">
         <v>13</v>
       </c>
       <c r="D7" t="s" s="60">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="61">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="62">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s" s="63">
         <v>17</v>
@@ -4336,7 +5158,7 @@
         <v>18</v>
       </c>
       <c r="I7" t="s" s="65">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s" s="66">
         <v>20</v>
@@ -4348,19 +5170,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="68">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s" s="69">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s" s="70">
         <v>13</v>
       </c>
       <c r="D8" t="s" s="71">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s" s="72">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s" s="73">
         <v>29</v>
@@ -4372,7 +5194,7 @@
         <v>36</v>
       </c>
       <c r="I8" t="s" s="76">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s" s="77">
         <v>20</v>
@@ -4384,19 +5206,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="79">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s" s="80">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="81">
         <v>13</v>
       </c>
       <c r="D9" t="s" s="82">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s" s="83">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s" s="84">
         <v>29</v>
@@ -4408,7 +5230,7 @@
         <v>36</v>
       </c>
       <c r="I9" t="s" s="87">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s" s="88">
         <v>20</v>
@@ -4420,22 +5242,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="90">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s" s="91">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s" s="92">
         <v>13</v>
       </c>
       <c r="D10" t="s" s="93">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s" s="94">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s" s="95">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s" s="96">
         <v>17</v>
@@ -4444,7 +5266,7 @@
         <v>18</v>
       </c>
       <c r="I10" t="s" s="98">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s" s="99">
         <v>20</v>
@@ -4456,31 +5278,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="101">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s" s="102">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="103">
         <v>13</v>
       </c>
       <c r="D11" t="s" s="104">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s" s="105">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s" s="106">
         <v>29</v>
       </c>
       <c r="G11" t="s" s="107">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s" s="108">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="109">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="110">
         <v>20</v>
@@ -4492,31 +5314,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="112">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s" s="113">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s" s="114">
         <v>13</v>
       </c>
       <c r="D12" t="s" s="115">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s" s="116">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="117">
         <v>29</v>
       </c>
       <c r="G12" t="s" s="118">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s" s="119">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="120">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="121">
         <v>20</v>
@@ -4528,19 +5350,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="123">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s" s="124">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s" s="125">
         <v>13</v>
       </c>
       <c r="D13" t="s" s="126">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s" s="127">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s" s="128">
         <v>29</v>
@@ -4552,7 +5374,7 @@
         <v>36</v>
       </c>
       <c r="I13" t="s" s="131">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="132">
         <v>20</v>
@@ -4564,19 +5386,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="134">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s" s="135">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s" s="136">
         <v>13</v>
       </c>
       <c r="D14" t="s" s="137">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s" s="138">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s" s="139">
         <v>29</v>
@@ -4588,7 +5410,7 @@
         <v>36</v>
       </c>
       <c r="I14" t="s" s="142">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="143">
         <v>20</v>
@@ -4600,19 +5422,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="145">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s" s="146">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s" s="147">
         <v>13</v>
       </c>
       <c r="D15" t="s" s="148">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s" s="149">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="150">
         <v>29</v>
@@ -4624,7 +5446,7 @@
         <v>36</v>
       </c>
       <c r="I15" t="s" s="153">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="154">
         <v>20</v>
@@ -4636,19 +5458,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="156">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s" s="157">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s" s="158">
         <v>13</v>
       </c>
       <c r="D16" t="s" s="159">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s" s="160">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s" s="161">
         <v>29</v>
@@ -4660,7 +5482,7 @@
         <v>36</v>
       </c>
       <c r="I16" t="s" s="164">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s" s="165">
         <v>20</v>
@@ -4672,22 +5494,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="167">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s" s="168">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s" s="169">
         <v>13</v>
       </c>
       <c r="D17" t="s" s="170">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s" s="171">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s" s="172">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s" s="173">
         <v>17</v>
@@ -4696,7 +5518,7 @@
         <v>18</v>
       </c>
       <c r="I17" t="s" s="175">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s" s="176">
         <v>20</v>
@@ -4708,22 +5530,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="178">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s" s="179">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s" s="180">
         <v>13</v>
       </c>
       <c r="D18" t="s" s="181">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s" s="182">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s" s="183">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s" s="184">
         <v>17</v>
@@ -4732,7 +5554,7 @@
         <v>18</v>
       </c>
       <c r="I18" t="s" s="186">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s" s="187">
         <v>20</v>
@@ -4744,19 +5566,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="189">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s" s="190">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s" s="191">
         <v>13</v>
       </c>
       <c r="D19" t="s" s="192">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s" s="193">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s" s="194">
         <v>29</v>
@@ -4768,7 +5590,7 @@
         <v>36</v>
       </c>
       <c r="I19" t="s" s="197">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="J19" t="s" s="198">
         <v>20</v>
@@ -4780,19 +5602,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="200">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s" s="201">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s" s="202">
         <v>13</v>
       </c>
       <c r="D20" t="s" s="203">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s" s="204">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s" s="205">
         <v>29</v>
@@ -4804,7 +5626,7 @@
         <v>36</v>
       </c>
       <c r="I20" t="s" s="208">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J20" t="s" s="209">
         <v>20</v>
@@ -4816,22 +5638,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="211">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s" s="212">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s" s="213">
         <v>13</v>
       </c>
       <c r="D21" t="s" s="214">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s" s="215">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s" s="216">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s" s="217">
         <v>17</v>
@@ -4840,7 +5662,7 @@
         <v>18</v>
       </c>
       <c r="I21" t="s" s="219">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s" s="220">
         <v>20</v>
@@ -4852,19 +5674,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="222">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s" s="223">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s" s="224">
         <v>13</v>
       </c>
       <c r="D22" t="s" s="225">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s" s="226">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s" s="227">
         <v>29</v>
@@ -4876,7 +5698,7 @@
         <v>36</v>
       </c>
       <c r="I22" t="s" s="230">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J22" t="s" s="231">
         <v>20</v>
@@ -4888,19 +5710,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="233">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s" s="234">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s" s="235">
         <v>13</v>
       </c>
       <c r="D23" t="s" s="236">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s" s="237">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s" s="238">
         <v>29</v>
@@ -4912,7 +5734,7 @@
         <v>36</v>
       </c>
       <c r="I23" t="s" s="241">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J23" t="s" s="242">
         <v>20</v>
@@ -4924,19 +5746,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="244">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s" s="245">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s" s="246">
         <v>13</v>
       </c>
       <c r="D24" t="s" s="247">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s" s="248">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s" s="249">
         <v>29</v>
@@ -4948,7 +5770,7 @@
         <v>36</v>
       </c>
       <c r="I24" t="s" s="252">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J24" t="s" s="253">
         <v>20</v>
@@ -4960,19 +5782,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="255">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s" s="256">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s" s="257">
         <v>13</v>
       </c>
       <c r="D25" t="s" s="258">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s" s="259">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s" s="260">
         <v>29</v>
@@ -4984,7 +5806,7 @@
         <v>36</v>
       </c>
       <c r="I25" t="s" s="263">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J25" t="s" s="264">
         <v>20</v>
@@ -4996,19 +5818,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="266">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s" s="267">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s" s="268">
         <v>13</v>
       </c>
       <c r="D26" t="s" s="269">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s" s="270">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s" s="271">
         <v>29</v>
@@ -5020,7 +5842,7 @@
         <v>36</v>
       </c>
       <c r="I26" t="s" s="274">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J26" t="s" s="275">
         <v>20</v>
@@ -5032,19 +5854,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="277">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s" s="278">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s" s="279">
         <v>13</v>
       </c>
       <c r="D27" t="s" s="280">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s" s="281">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s" s="282">
         <v>29</v>
@@ -5056,7 +5878,7 @@
         <v>36</v>
       </c>
       <c r="I27" t="s" s="285">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="J27" t="s" s="286">
         <v>20</v>
@@ -5068,19 +5890,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="288">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s" s="289">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s" s="290">
         <v>13</v>
       </c>
       <c r="D28" t="s" s="291">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s" s="292">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s" s="293">
         <v>29</v>
@@ -5092,7 +5914,7 @@
         <v>36</v>
       </c>
       <c r="I28" t="s" s="296">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="J28" t="s" s="297">
         <v>20</v>
@@ -5104,19 +5926,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="299">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s" s="300">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s" s="301">
         <v>13</v>
       </c>
       <c r="D29" t="s" s="302">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s" s="303">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s" s="304">
         <v>29</v>
@@ -5128,7 +5950,7 @@
         <v>36</v>
       </c>
       <c r="I29" t="s" s="307">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J29" t="s" s="308">
         <v>20</v>
@@ -5140,31 +5962,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="310">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s" s="311">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s" s="312">
         <v>13</v>
       </c>
       <c r="D30" t="s" s="313">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s" s="314">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s" s="315">
         <v>29</v>
       </c>
       <c r="G30" t="s" s="316">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s" s="317">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s" s="318">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="J30" t="s" s="319">
         <v>20</v>
@@ -5173,6 +5995,114 @@
         <v>21</v>
       </c>
       <c r="L30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="321">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s" s="322">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s" s="323">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="324">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s" s="325">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s" s="326">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s" s="327">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s" s="328">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s" s="329">
+        <v>172</v>
+      </c>
+      <c r="J31" t="s" s="330">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s" s="331">
+        <v>21</v>
+      </c>
+      <c r="L31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="332">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s" s="333">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s" s="334">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="335">
+        <v>175</v>
+      </c>
+      <c r="E32" t="s" s="336">
+        <v>171</v>
+      </c>
+      <c r="F32" t="s" s="337">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s" s="338">
+        <v>176</v>
+      </c>
+      <c r="H32" t="s" s="339">
+        <v>177</v>
+      </c>
+      <c r="I32" t="s" s="340">
+        <v>178</v>
+      </c>
+      <c r="J32" t="s" s="341">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s" s="342">
+        <v>21</v>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="343">
+        <v>179</v>
+      </c>
+      <c r="B33" t="s" s="344">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s" s="345">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="346">
+        <v>181</v>
+      </c>
+      <c r="E33" t="s" s="347">
+        <v>182</v>
+      </c>
+      <c r="F33" t="s" s="348">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s" s="349">
+        <v>183</v>
+      </c>
+      <c r="H33" t="s" s="350">
+        <v>184</v>
+      </c>
+      <c r="I33" t="s" s="351">
+        <v>185</v>
+      </c>
+      <c r="J33" t="s" s="352">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s" s="353">
+        <v>21</v>
+      </c>
+      <c r="L33"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
